--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -190,7 +190,37 @@
     <t>27*2</t>
   </si>
   <si>
-    <t>处理60台机未安装合同上6个软件的问题。做系统，装合同上的软件，同传</t>
+    <t>第四次去，处理60台机未安装合同上6个软件的问题。做系统，装合同上的软件，同传</t>
+  </si>
+  <si>
+    <t>2021.10.11</t>
+  </si>
+  <si>
+    <t>第五次去，处理另一个教室60台机未安装合同上6个软件的问题。已完成。</t>
+  </si>
+  <si>
+    <t>WO-015548140</t>
+  </si>
+  <si>
+    <t>2021.10.14</t>
+  </si>
+  <si>
+    <t>公司-油校西城区-公司</t>
+  </si>
+  <si>
+    <t>林诗晓</t>
+  </si>
+  <si>
+    <t>16*2</t>
+  </si>
+  <si>
+    <t>HP笔记本换主板</t>
+  </si>
+  <si>
+    <t>2021.10.15</t>
+  </si>
+  <si>
+    <t>HP笔记本换主板,送电脑给黄老师。</t>
   </si>
   <si>
     <t>、</t>
@@ -339,122 +369,122 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF9C0006"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF006100"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF9C6500"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFA7D00"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <i/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFA7D00"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF3F3F76"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <color rgb="FF1F497D"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15.0"/>
-      <color rgb="FF1F497D"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="13.0"/>
-      <color rgb="FF1F497D"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF1F497D"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-      <b/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12.0"/>
+      <color rgb="FF9C0006"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF006100"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF9C6500"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <i/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1F497D"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
@@ -844,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1405,13 +1435,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1619,130 +1679,133 @@
     <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" applyFont="1" fillId="36" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="37" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="34" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="36" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="38" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="41" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="42" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="43" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="44" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="45" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="46" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="47" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="48" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="49" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="50" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" applyFont="1" fillId="51" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="52" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="53" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="54" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="55" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="56" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="57" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="58" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="59" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="60" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="61" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="62" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" applyFont="1" fillId="63" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1761,21 +1824,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
@@ -1787,14 +1835,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1813,10 +1867,10 @@
   <sheetPr>
     <outlinePr showOutlineSymbols="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1916,160 +1970,204 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="127" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="127">
+      <c r="H8" s="11">
         <v>54.0</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36.74944" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="37.499428" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="14"/>
+    <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="123">
+        <v>54.0</v>
+      </c>
+      <c r="I9" s="122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="123">
+        <v>32.0</v>
+      </c>
+      <c r="I10" s="122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="126"/>
+      <c r="C11" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="123">
+        <v>32.0</v>
+      </c>
+      <c r="I11" s="122" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="13"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+    <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="C16" s="71"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="69"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="14"/>
+    <row r="17" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="13"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="13"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="14"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="11"/>
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="14"/>
+    <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
       <c r="C21" s="16"/>
       <c r="D21" s="14"/>
       <c r="E21" s="11"/>
       <c r="F21" s="13"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -2102,41 +2200,31 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="1">
-        <f>SUM(H6:H26)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H32" s="1"/>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SUM(H6:H25)</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -217,10 +217,16 @@
     <t>HP笔记本换主板</t>
   </si>
   <si>
+    <t>WO-015554708</t>
+  </si>
+  <si>
     <t>2021.10.15</t>
   </si>
   <si>
-    <t>HP笔记本换主板,送电脑给黄老师。</t>
+    <t>1、冯芊柔 2、黄老师</t>
+  </si>
+  <si>
+    <t>1、HP笔记本换主板。2、送4台主机及1台显示器给黄老师。</t>
   </si>
   <si>
     <t>、</t>
@@ -874,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1360,118 +1366,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1826,29 +1727,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" applyNumberFormat="1" fontId="0" fillId="0" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="0" fillId="0" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1869,8 +1749,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1996,77 +1876,81 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="123" t="s">
+      <c r="G9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="123">
+      <c r="H9" s="11">
         <v>54.0</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="124" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="11">
         <v>32.0</v>
       </c>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="126"/>
-      <c r="C11" s="128" t="s">
+      <c r="B11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="C11" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="122"/>
-      <c r="F11" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="123" t="s">
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="123">
-        <v>32.0</v>
+      <c r="H11" s="11">
+        <v>36</v>
       </c>
       <c r="I11" s="122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
@@ -2201,7 +2085,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2213,11 +2097,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -229,6 +229,39 @@
     <t>1、HP笔记本换主板。2、送4台主机及1台显示器给黄老师。</t>
   </si>
   <si>
+    <t>WO-015541518</t>
+  </si>
+  <si>
+    <t>2021.10.19</t>
+  </si>
+  <si>
+    <t>公司-水东春华学校-公司</t>
+  </si>
+  <si>
+    <t>吴主任</t>
+  </si>
+  <si>
+    <t>23*2</t>
+  </si>
+  <si>
+    <t>HP台式机换主板</t>
+  </si>
+  <si>
+    <t>2021.10.20</t>
+  </si>
+  <si>
+    <t>公司-化州北京路18号农商银行-公司</t>
+  </si>
+  <si>
+    <t>李海</t>
+  </si>
+  <si>
+    <t>41*2</t>
+  </si>
+  <si>
+    <t>解决清华同方台式机win10专业版不能进系统</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -880,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1366,13 +1399,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1728,7 +1791,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1750,7 +1822,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -1947,31 +2019,63 @@
         <v>14</v>
       </c>
       <c r="H11" s="11">
-        <v>36</v>
-      </c>
-      <c r="I11" s="122" t="s">
+        <v>36.0</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>46</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="125">
+        <v>2987183</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11">
+        <v>82</v>
+      </c>
+      <c r="I13" s="123" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="14"/>
@@ -2085,7 +2189,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2097,11 +2201,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>252</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -262,6 +262,18 @@
     <t>解决清华同方台式机win10专业版不能进系统</t>
   </si>
   <si>
+    <t>2021.10.26</t>
+  </si>
+  <si>
+    <t>公司-农林职业技术学校-公司</t>
+  </si>
+  <si>
+    <t>梁老师</t>
+  </si>
+  <si>
+    <t>取两台海尔主机回公司。</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -1264,6 +1276,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1381,21 +1408,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,6 +1659,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" applyFont="1" fillId="33" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1658,10 +1676,10 @@
     <xf numFmtId="0" fontId="22" applyFont="1" fillId="35" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="23" applyFont="1" fillId="36" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" applyFont="1" fillId="37" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1670,34 +1688,34 @@
     <xf numFmtId="0" fontId="26" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="27" applyFont="1" fillId="0" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" applyFont="1" fillId="36" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" applyFont="1" fillId="38" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="31" applyFont="1" fillId="0" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" applyFont="1" fillId="0" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="34" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" applyFont="1" fillId="40" applyFill="1" borderId="0" applyAlignment="1" xfId="0">
@@ -1788,19 +1806,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1821,8 +1833,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2035,7 +2047,7 @@
       <c r="D12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="122" t="s">
+      <c r="E12" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -2045,20 +2057,20 @@
         <v>14</v>
       </c>
       <c r="H12" s="11">
-        <v>46</v>
-      </c>
-      <c r="I12" s="123" t="s">
+        <v>46.0</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="125">
-        <v>2987183</v>
+      <c r="B13" s="75">
+        <v>2987183.0</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -2071,21 +2083,37 @@
         <v>14</v>
       </c>
       <c r="H13" s="11">
-        <v>82</v>
-      </c>
-      <c r="I13" s="123" t="s">
+        <v>82.0</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11">
+        <v>32</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
@@ -2189,7 +2217,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2201,11 +2229,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>380</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -274,6 +274,15 @@
     <t>取两台海尔主机回公司。</t>
   </si>
   <si>
+    <t>2021.10.27</t>
+  </si>
+  <si>
+    <t>公司-高州-公司</t>
+  </si>
+  <si>
+    <t>取一台上次没修好的屏幕闪屏的HP笔记本回公司</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -925,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1426,28 +1435,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,9 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1833,8 +1824,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2096,7 +2087,7 @@
       <c r="C14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="14" t="s">
@@ -2105,11 +2096,11 @@
       <c r="F14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="125" t="s">
+      <c r="G14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="11">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>53</v>
@@ -2117,13 +2108,21 @@
     </row>
     <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="124" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="69"/>
@@ -2217,7 +2216,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2229,7 +2228,7 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -274,10 +274,19 @@
     <t>取两台海尔主机回公司。</t>
   </si>
   <si>
+    <t>WO-015720284</t>
+  </si>
+  <si>
     <t>2021.10.27</t>
   </si>
   <si>
     <t>公司-高州-公司</t>
+  </si>
+  <si>
+    <t>巫女士</t>
+  </si>
+  <si>
+    <t>36*2</t>
   </si>
   <si>
     <t>取一台上次没修好的屏幕闪屏的HP笔记本回公司</t>
@@ -306,7 +315,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="39">
+  <fonts count="38" x14ac:knownFonts="38">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -548,11 +557,6 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="永中宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -934,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1420,28 +1424,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,9 +1790,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1824,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2107,21 +2093,29 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="124" t="s">
-        <v>56</v>
+      <c r="H15" s="11">
+        <v>72</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
@@ -2216,7 +2210,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2228,11 +2222,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>412</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -280,7 +280,7 @@
     <t>2021.10.27</t>
   </si>
   <si>
-    <t>公司-高州-公司</t>
+    <t>公司-高州市府前北路220号-公司</t>
   </si>
   <si>
     <t>巫女士</t>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>取一台上次没修好的屏幕闪屏的HP笔记本回公司</t>
+  </si>
+  <si>
+    <t>UA20211026164341904173</t>
+  </si>
+  <si>
+    <t>2021.11.02</t>
+  </si>
+  <si>
+    <t>公司-高州文明路37号中国人寿-公司</t>
+  </si>
+  <si>
+    <t>李泉章</t>
+  </si>
+  <si>
+    <t>200+36*2</t>
+  </si>
+  <si>
+    <t>第一次上门：更换高清摄像头和数据线无法解决。判断为系统故障。（此处有一张违停罚单200元）</t>
+  </si>
+  <si>
+    <t>2021.11.03</t>
+  </si>
+  <si>
+    <t>第二次上门：下载好系统后装完系统故障依旧，用旧安卓数据线测试正常，判断新数据线DOA。</t>
   </si>
   <si>
     <t>、</t>
@@ -315,7 +339,7 @@
     <numFmt numFmtId="185" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="38">
+  <fonts count="39" x14ac:knownFonts="39">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -557,6 +581,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -938,7 +967,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1424,13 +1453,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,6 +1864,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1810,8 +1893,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2112,31 +2195,63 @@
         <v>14</v>
       </c>
       <c r="H15" s="11">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="69"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
+      <c r="B16" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="11">
+        <v>272</v>
+      </c>
+      <c r="I16" s="125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="11">
+        <v>72</v>
+      </c>
+      <c r="I17" s="125" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
@@ -2210,7 +2325,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2222,11 +2337,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>484</v>
+        <v>828</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -316,6 +316,18 @@
     <t>第二次上门：下载好系统后装完系统故障依旧，用旧安卓数据线测试正常，判断新数据线DOA。</t>
   </si>
   <si>
+    <t>2021.11.05上午</t>
+  </si>
+  <si>
+    <t>公司-高州送笔记本巫小姐-高州市公安局-公司</t>
+  </si>
+  <si>
+    <t>2021.11.05下午</t>
+  </si>
+  <si>
+    <t>公司-水东1换硬盘-水东2换主板-公司</t>
+  </si>
+  <si>
     <t>、</t>
   </si>
   <si>
@@ -967,7 +979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1468,43 +1480,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,14 +1847,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
@@ -1894,7 +1873,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H21" activeCellId="0" sqref="H21"/>
+      <selection activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2211,7 +2190,7 @@
       <c r="D16" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="125" t="s">
+      <c r="E16" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="13" t="s">
@@ -2221,9 +2200,9 @@
         <v>14</v>
       </c>
       <c r="H16" s="11">
-        <v>272</v>
-      </c>
-      <c r="I16" s="125" t="s">
+        <v>272.0</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2231,13 +2210,13 @@
       <c r="B17" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="72" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="125" t="s">
+      <c r="E17" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -2247,16 +2226,20 @@
         <v>14</v>
       </c>
       <c r="H17" s="11">
-        <v>72</v>
-      </c>
-      <c r="I17" s="125" t="s">
+        <v>72.0</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="124" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="13"/>
       <c r="G18" s="11"/>
@@ -2265,8 +2248,12 @@
     </row>
     <row r="19" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="125" t="s">
+        <v>71</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" s="13"/>
       <c r="G19" s="11"/>
@@ -2325,7 +2312,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2337,7 +2324,7 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -316,16 +316,137 @@
     <t>第二次上门：下载好系统后装完系统故障依旧，用旧安卓数据线测试正常，判断新数据线DOA。</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-015720284
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-015807468+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>2021.11.05上午</t>
   </si>
   <si>
-    <t>公司-高州送笔记本巫小姐-高州市公安局-公司</t>
+    <t>公司-1、高州市府前北路220号-高州市公安局-公司</t>
+  </si>
+  <si>
+    <t>1、巫小姐 2、黎先生</t>
+  </si>
+  <si>
+    <t>1、送HP笔记本给客户。2、HP台式机更换硬盘。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-015785432
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">WO-015786069+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>2021.11.05下午</t>
   </si>
   <si>
-    <t>公司-水东1换硬盘-水东2换主板-公司</t>
+    <t>公司-水东镇人民路91号-水东镇万达广场5楼-公司</t>
+  </si>
+  <si>
+    <t>1、严生 2、欧惟全</t>
+  </si>
+  <si>
+    <t>26*2</t>
+  </si>
+  <si>
+    <t>1、HP台式机更换主板。2、HP台式机更换硬盘。</t>
   </si>
   <si>
     <t>、</t>
@@ -979,7 +1100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1480,13 +1601,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1848,6 +1984,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1872,8 +2011,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2233,32 +2372,56 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14"/>
+      <c r="B18" s="124" t="s">
+        <v>68</v>
+      </c>
       <c r="C18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="14"/>
+      <c r="D18" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="11">
+        <v>72</v>
+      </c>
+      <c r="I18" s="124" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="11"/>
+      <c r="B19" s="124" t="s">
+        <v>73</v>
+      </c>
       <c r="C19" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="D19" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="11">
+        <v>52</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
@@ -2312,7 +2475,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2324,11 +2487,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>828</v>
+        <v>952</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/202110.xlsx
+++ b/HP/zj/202110.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>2021年10月份旅差费</t>
   </si>
@@ -447,6 +447,166 @@
   </si>
   <si>
     <t>1、HP台式机更换主板。2、HP台式机更换硬盘。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WO-015838193</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.11.08</t>
+  </si>
+  <si>
+    <t>公司-水东镇人民路91号-公司</t>
+  </si>
+  <si>
+    <t>严生</t>
+  </si>
+  <si>
+    <t>24*2</t>
+  </si>
+  <si>
+    <t>HP台式机更换主板</t>
+  </si>
+  <si>
+    <t>2021.11.09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、梁老师，叶老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、黄老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、送两台主机给梁老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取一台海尔显示器回公司。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、取两台清华同方主机；一台显示器回公司。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>、</t>
@@ -1100,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1616,13 +1776,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1986,10 +2161,13 @@
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="183" applyNumberFormat="1" fontId="37" applyFont="1" fillId="0" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="0" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" applyFont="1" fillId="0" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -2011,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.0" x14ac:dyDescent="0.15"/>
@@ -2025,7 +2203,7 @@
     <col min="6" max="6" width="13.875" customWidth="1" style="7"/>
     <col min="7" max="7" width="13.125" customWidth="1" style="1"/>
     <col min="8" max="8" width="9.0" style="1"/>
-    <col min="9" max="9" width="42.875" customWidth="1" style="1"/>
+    <col min="9" max="9" width="46.875" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2372,13 +2550,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="11" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -2391,23 +2569,23 @@
         <v>14</v>
       </c>
       <c r="H18" s="11">
-        <v>72</v>
-      </c>
-      <c r="I18" s="124" t="s">
+        <v>72.0</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="125" t="s">
+      <c r="E19" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -2417,31 +2595,63 @@
         <v>14</v>
       </c>
       <c r="H19" s="11">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="32.249508" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="14"/>
+    <row r="20" spans="1:9" ht="35.99945" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="11">
+        <v>48</v>
+      </c>
+      <c r="I20" s="124" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+    <row r="21" spans="1:9" ht="38.249416" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="11">
+        <v>36</v>
+      </c>
+      <c r="I21" s="124" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
@@ -2475,7 +2685,7 @@
     </row>
     <row r="25" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="11"/>
@@ -2487,11 +2697,11 @@
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(H6:H25)</f>
-        <v>952</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
